--- a/food.xlsx
+++ b/food.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="30660" windowHeight="13776"/>
+    <workbookView xWindow="0" yWindow="84" windowWidth="30660" windowHeight="13776" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Fruits" sheetId="1" r:id="rId1"/>
+    <sheet name="Mom's Garden (miles)" sheetId="2" r:id="rId2"/>
+    <sheet name="Vegetables" sheetId="3" r:id="rId3"/>
+    <sheet name="Meats" sheetId="4" r:id="rId4"/>
+    <sheet name="Dairy" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t>Water</t>
   </si>
@@ -64,6 +66,18 @@
   </si>
   <si>
     <t>Fiber</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Okra</t>
   </si>
 </sst>
 </file>
@@ -425,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,24 +530,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/food.xlsx
+++ b/food.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
   <si>
     <t>Water</t>
   </si>
@@ -78,6 +78,51 @@
   </si>
   <si>
     <t>Okra</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>(Hot pepper?)</t>
+  </si>
+  <si>
+    <t>Yam leaves</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>Green onion</t>
+  </si>
+  <si>
+    <t>Acorn Squash</t>
+  </si>
+  <si>
+    <t>Kabocha squash</t>
+  </si>
+  <si>
+    <t>Chili</t>
+  </si>
+  <si>
+    <t>Green beans</t>
+  </si>
+  <si>
+    <t>Bitter gourd</t>
+  </si>
+  <si>
+    <t>Wax gourd</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>kcal</t>
+  </si>
+  <si>
+    <t>Portion Estimate</t>
   </si>
 </sst>
 </file>
@@ -119,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,15 +172,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,79 +624,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D4">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
